--- a/Docs/Sietch/2406/Vockan Expense Report Nelson 06_24.xlsx
+++ b/Docs/Sietch/2406/Vockan Expense Report Nelson 06_24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\RGitRep\Docs\Sietch\2406\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89D439C-01D6-4D62-9A87-BE652CD3E5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AFB3BC-8ED2-4FC4-933C-0F8EB8F8531F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">Client Name / Project Name:  </t>
   </si>
@@ -1660,6 +1660,126 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2455440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="18120" cy="5610"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Tinta 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2705B5DB-2EFC-41F9-9FBC-7A3E3F599C7F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7134120" y="2658120"/>
+            <a:ext cx="2880" cy="1800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Tinta 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE67C3E6-FB7A-3F98-81CD-CDB59E645819}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7128000" y="2652000"/>
+              <a:ext cx="15120" cy="14040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1217880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4365" cy="10755"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Tinta 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0EE077-3ADC-404C-B4D1-3F05F30AD849}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1446480" y="2186880"/>
+            <a:ext cx="10080" cy="5040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Tinta 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9B1E2C-D7D0-6A44-C4D6-F64C413166E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1440360" y="2180760"/>
+              <a:ext cx="22320" cy="17280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1932,6 +2052,68 @@
         </inkml:channelProperties>
       </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2024-05-16T12:47:25.066"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7 13 2161 0 0,'0'-4'2961'0'0,"-4"2"-319"0"0,4 0-321 0 0,0-3-481 0 0,-3 5-79 0 0,6 0-2241 0 0,4 0-3202 0 0,4 2 641 0 0,-5 3-401 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-06-04T16:16:34.871"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 7 560 0 0,'0'0'641'0'0,"0"7"-241"0"0,26-14-800 0 0,-7 1-481 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-06-04T16:16:49.462"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -2483,7 +2665,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2598,17 +2780,31 @@
     </row>
     <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="17">
+        <v>45447</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="20">
+        <v>232.3</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="17">
+        <v>45447</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="20">
+        <v>46.15</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -2673,7 +2869,7 @@
       <c r="D21" s="19"/>
       <c r="E21" s="21">
         <f>SUM(E9:E20)</f>
-        <v>282.42</v>
+        <v>560.87</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
